--- a/导表工具/C-采矿.xlsx
+++ b/导表工具/C-采矿.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\h10-d-zzcq\trunk\表格导出\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" tabRatio="555"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="采矿基本配置" sheetId="1" r:id="rId1"/>
     <sheet name="矿源" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -157,24 +152,36 @@
     <t>kuangPos</t>
   </si>
   <si>
+    <t>{{x=2,y=8,d=7},{x=4,y=7,d=7},{x=5,y=6,d=7},{x=7,y=5,d=7},{x=8,y=4,d=0},{x=10,y=5,d=1},{x=11,y=6,d=1},{x=12,y=6,d=1},{x=13,y=8,d=1},{x=14,y=10,d=1}}</t>
+  </si>
+  <si>
     <t>传送点坐标</t>
   </si>
   <si>
     <t>transPos</t>
   </si>
   <si>
+    <t>{{x=1,y=11},{x=10,y=11}}</t>
+  </si>
+  <si>
     <t>进入下一场景坐标</t>
   </si>
   <si>
     <t>nextPos</t>
   </si>
   <si>
+    <t>{x=2,y=11}</t>
+  </si>
+  <si>
     <t>返回上一场景坐标</t>
   </si>
   <si>
     <t>backPos</t>
   </si>
   <si>
+    <t>{x=9,y=11}</t>
+  </si>
+  <si>
     <t>双倍领取奖励元宝</t>
   </si>
   <si>
@@ -320,29 +327,19 @@
   </si>
   <si>
     <t>0xFF0000</t>
-  </si>
-  <si>
-    <t>{x=2,y=11}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{x=9,y=11}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{x=2,y=8,d=7},{x=4,y=7,d=7},{x=5,y=6,d=7},{x=7,y=5,d=7},{x=8,y=4,d=0},{x=10,y=5,d=1},{x=11,y=6,d=1},{x=12,y=6,d=1},{x=13,y=8,d=1},{x=14,y=10,d=1}}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{x=1,y=11},{x=10,y=11}}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,14 +388,12 @@
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="华文中宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="新宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -413,13 +408,156 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -427,24 +565,16 @@
       <sz val="12"/>
       <color rgb="FF7030A0"/>
       <name val="华文仿宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="华文细黑"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,13 +583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.7993713187047945"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.799371318704794"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,8 +607,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14990691854609822"/>
-        <bgColor theme="0" tint="-0.14990691854609822"/>
+        <fgColor theme="0" tint="-0.149906918546098"/>
+        <bgColor theme="0" tint="-0.149906918546098"/>
       </patternFill>
     </fill>
     <fill>
@@ -493,8 +623,194 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -586,6 +902,63 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -600,97 +973,267 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -705,7 +1248,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,7 +1260,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -734,23 +1277,67 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="55">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 3" xfId="4"/>
-    <cellStyle name="常规 3" xfId="5"/>
-    <cellStyle name="常规 8" xfId="2"/>
-    <cellStyle name="我的公式" xfId="1"/>
-    <cellStyle name="我的外边框" xfId="6"/>
-    <cellStyle name="我的选择" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="我的公式" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="常规 8" xfId="20"/>
+    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="24" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="25" builtinId="44"/>
+    <cellStyle name="输出" xfId="26" builtinId="21"/>
+    <cellStyle name="计算" xfId="27" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="28" builtinId="23"/>
+    <cellStyle name="我的选择" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="常规 2 3" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="52" builtinId="52"/>
+    <cellStyle name="常规 3" xfId="53"/>
+    <cellStyle name="我的外边框" xfId="54"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -764,7 +1351,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1008,19 +1595,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="29.875" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -1121,7 +1708,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75">
+    <row r="8" spans="1:4">
       <c r="A8" s="25" t="s">
         <v>18</v>
       </c>
@@ -1135,7 +1722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75">
+    <row r="9" spans="1:4">
       <c r="A9" s="25" t="s">
         <v>20</v>
       </c>
@@ -1149,7 +1736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:4">
       <c r="A10" s="25" t="s">
         <v>22</v>
       </c>
@@ -1163,7 +1750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:4">
       <c r="A11" s="31" t="s">
         <v>24</v>
       </c>
@@ -1177,7 +1764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4">
       <c r="A12" s="31" t="s">
         <v>27</v>
       </c>
@@ -1191,7 +1778,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13" s="31" t="s">
         <v>30</v>
       </c>
@@ -1205,7 +1792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:4">
       <c r="A14" s="31" t="s">
         <v>32</v>
       </c>
@@ -1219,7 +1806,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4">
       <c r="A15" s="31" t="s">
         <v>34</v>
       </c>
@@ -1233,7 +1820,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4">
       <c r="A16" s="31" t="s">
         <v>36</v>
       </c>
@@ -1286,95 +1873,96 @@
         <v>44</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="31" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="31" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D23">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75">
+    <row r="24" spans="1:4">
       <c r="A24" s="35" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="14.875" customWidth="1"/>
     <col min="4" max="4" width="8.875" customWidth="1"/>
@@ -1387,27 +1975,27 @@
     <col min="11" max="11" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
@@ -1417,7 +2005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1428,7 +2016,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:5">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1440,46 +2028,46 @@
         <v>9</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1531,58 +2119,58 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="17"/>
       <c r="B8" s="17">
         <v>1</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D8" s="20">
         <v>1</v>
@@ -1595,7 +2183,7 @@
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I8" s="20">
         <v>10</v>
@@ -1616,15 +2204,15 @@
         <v>70001</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D9" s="20">
         <v>2</v>
@@ -1637,7 +2225,7 @@
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I9" s="20">
         <v>10</v>
@@ -1658,15 +2246,15 @@
         <v>70002</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D10" s="20">
         <v>3</v>
@@ -1679,7 +2267,7 @@
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I10" s="20">
         <v>10</v>
@@ -1700,15 +2288,15 @@
         <v>70003</v>
       </c>
       <c r="O10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
       <c r="B11" s="17">
         <v>4</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D11" s="20">
         <v>4</v>
@@ -1720,10 +2308,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I11" s="20">
         <v>10</v>
@@ -1740,12 +2328,12 @@
         <v>70004</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/导表工具/C-采矿.xlsx
+++ b/导表工具/C-采矿.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\h10-d-zzcq\trunk\表格导出\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="555" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" tabRatio="555"/>
   </bookViews>
   <sheets>
     <sheet name="采矿基本配置" sheetId="1" r:id="rId1"/>
     <sheet name="矿源" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -152,194 +157,192 @@
     <t>kuangPos</t>
   </si>
   <si>
+    <t>传送点坐标</t>
+  </si>
+  <si>
+    <t>transPos</t>
+  </si>
+  <si>
+    <t>进入下一场景坐标</t>
+  </si>
+  <si>
+    <t>nextPos</t>
+  </si>
+  <si>
+    <t>返回上一场景坐标</t>
+  </si>
+  <si>
+    <t>backPos</t>
+  </si>
+  <si>
+    <t>双倍领取奖励元宝</t>
+  </si>
+  <si>
+    <t>doubleCost</t>
+  </si>
+  <si>
+    <t>刷新消耗道具</t>
+  </si>
+  <si>
+    <t>needItem</t>
+  </si>
+  <si>
+    <t>{id=200936,count=1}</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>KuangYuanConfig={</t>
+  </si>
+  <si>
+    <t>caikuang/kuangyuan.config</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>矿源名字</t>
+  </si>
+  <si>
+    <t>等级(品质)</t>
+  </si>
+  <si>
+    <t>随机初始化概率(万分比)</t>
+  </si>
+  <si>
+    <t>升级概率(万分比)</t>
+  </si>
+  <si>
+    <t>道具奖励</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>抢夺比例(百分比)</t>
+  </si>
+  <si>
+    <t>复仇比例(百分比)</t>
+  </si>
+  <si>
+    <t>需要时间</t>
+  </si>
+  <si>
+    <t>刷新n次必升级</t>
+  </si>
+  <si>
+    <t>祝福值</t>
+  </si>
+  <si>
+    <t>npc</t>
+  </si>
+  <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>uprate</t>
+  </si>
+  <si>
+    <t>rewardItem</t>
+  </si>
+  <si>
+    <t>rewards</t>
+  </si>
+  <si>
+    <t>robPrecent</t>
+  </si>
+  <si>
+    <t>revengePrecent</t>
+  </si>
+  <si>
+    <t>needTime</t>
+  </si>
+  <si>
+    <t>baseTime</t>
+  </si>
+  <si>
+    <t>maxTimes</t>
+  </si>
+  <si>
+    <t>npcId</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>"裸体矿工"</t>
+  </si>
+  <si>
+    <t>{{type=1,id=200167,count=100},{type=1,id=200303,count=10}}</t>
+  </si>
+  <si>
+    <t>0x00FF00</t>
+  </si>
+  <si>
+    <t>"布衣矿工"</t>
+  </si>
+  <si>
+    <t>{{type=1,id=200167,count=200},{type=1,id=200303,count=20}}</t>
+  </si>
+  <si>
+    <t>0xFF00FF</t>
+  </si>
+  <si>
+    <t>"重盔矿工"</t>
+  </si>
+  <si>
+    <t>{{type=1,id=200167,count=400},{type=1,id=200303,count=40}}</t>
+  </si>
+  <si>
+    <t>0xFF9900</t>
+  </si>
+  <si>
+    <t>"天魔矿工"</t>
+  </si>
+  <si>
+    <t>{{type=1,id=201000,count=1}}</t>
+  </si>
+  <si>
+    <t>{{type=1,id=200167,count=800},{type=1,id=200303,count=40}}</t>
+  </si>
+  <si>
+    <t>0xFF0000</t>
+  </si>
+  <si>
+    <t>{x=2,y=11}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{x=9,y=11}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>{{x=2,y=8,d=7},{x=4,y=7,d=7},{x=5,y=6,d=7},{x=7,y=5,d=7},{x=8,y=4,d=0},{x=10,y=5,d=1},{x=11,y=6,d=1},{x=12,y=6,d=1},{x=13,y=8,d=1},{x=14,y=10,d=1}}</t>
-  </si>
-  <si>
-    <t>传送点坐标</t>
-  </si>
-  <si>
-    <t>transPos</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{{x=1,y=11},{x=10,y=11}}</t>
-  </si>
-  <si>
-    <t>进入下一场景坐标</t>
-  </si>
-  <si>
-    <t>nextPos</t>
-  </si>
-  <si>
-    <t>{x=2,y=11}</t>
-  </si>
-  <si>
-    <t>返回上一场景坐标</t>
-  </si>
-  <si>
-    <t>backPos</t>
-  </si>
-  <si>
-    <t>{x=9,y=11}</t>
-  </si>
-  <si>
-    <t>双倍领取奖励元宝</t>
-  </si>
-  <si>
-    <t>doubleCost</t>
-  </si>
-  <si>
-    <t>刷新消耗道具</t>
-  </si>
-  <si>
-    <t>needItem</t>
-  </si>
-  <si>
-    <t>{id=200936,count=1}</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>KuangYuanConfig={</t>
-  </si>
-  <si>
-    <t>caikuang/kuangyuan.config</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>矿源名字</t>
-  </si>
-  <si>
-    <t>等级(品质)</t>
-  </si>
-  <si>
-    <t>随机初始化概率(万分比)</t>
-  </si>
-  <si>
-    <t>升级概率(万分比)</t>
-  </si>
-  <si>
-    <t>道具奖励</t>
-  </si>
-  <si>
-    <t>奖励</t>
-  </si>
-  <si>
-    <t>抢夺比例(百分比)</t>
-  </si>
-  <si>
-    <t>复仇比例(百分比)</t>
-  </si>
-  <si>
-    <t>需要时间</t>
-  </si>
-  <si>
-    <t>刷新n次必升级</t>
-  </si>
-  <si>
-    <t>祝福值</t>
-  </si>
-  <si>
-    <t>npc</t>
-  </si>
-  <si>
-    <t>颜色</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>uprate</t>
-  </si>
-  <si>
-    <t>rewardItem</t>
-  </si>
-  <si>
-    <t>rewards</t>
-  </si>
-  <si>
-    <t>robPrecent</t>
-  </si>
-  <si>
-    <t>revengePrecent</t>
-  </si>
-  <si>
-    <t>needTime</t>
-  </si>
-  <si>
-    <t>baseTime</t>
-  </si>
-  <si>
-    <t>maxTimes</t>
-  </si>
-  <si>
-    <t>npcId</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>"裸体矿工"</t>
-  </si>
-  <si>
-    <t>{{type=1,id=200167,count=100},{type=1,id=200303,count=10}}</t>
-  </si>
-  <si>
-    <t>0x00FF00</t>
-  </si>
-  <si>
-    <t>"布衣矿工"</t>
-  </si>
-  <si>
-    <t>{{type=1,id=200167,count=200},{type=1,id=200303,count=20}}</t>
-  </si>
-  <si>
-    <t>0xFF00FF</t>
-  </si>
-  <si>
-    <t>"重盔矿工"</t>
-  </si>
-  <si>
-    <t>{{type=1,id=200167,count=400},{type=1,id=200303,count=40}}</t>
-  </si>
-  <si>
-    <t>0xFF9900</t>
-  </si>
-  <si>
-    <t>"天魔矿工"</t>
-  </si>
-  <si>
-    <t>{{type=1,id=201000,count=1}}</t>
-  </si>
-  <si>
-    <t>{{type=1,id=200167,count=800},{type=1,id=200303,count=40}}</t>
-  </si>
-  <si>
-    <t>0xFF0000</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,12 +391,14 @@
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="华文中宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="新宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -411,153 +416,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -565,16 +427,24 @@
       <sz val="12"/>
       <color rgb="FF7030A0"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="华文细黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,13 +453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799371318704794"/>
+        <fgColor theme="3" tint="0.7993713187047945"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,8 +477,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
-        <bgColor theme="0" tint="-0.149906918546098"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
+        <bgColor theme="0" tint="-0.14990691854609822"/>
       </patternFill>
     </fill>
     <fill>
@@ -623,194 +493,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -902,63 +586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -973,267 +600,97 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1248,7 +705,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1260,7 +717,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1277,67 +734,23 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="我的公式" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="常规 8" xfId="20"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="24" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25" builtinId="44"/>
-    <cellStyle name="输出" xfId="26" builtinId="21"/>
-    <cellStyle name="计算" xfId="27" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="28" builtinId="23"/>
-    <cellStyle name="我的选择" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="常规 2 3" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="52" builtinId="52"/>
-    <cellStyle name="常规 3" xfId="53"/>
-    <cellStyle name="我的外边框" xfId="54"/>
+    <cellStyle name="常规 2 3" xfId="4"/>
+    <cellStyle name="常规 3" xfId="5"/>
+    <cellStyle name="常规 8" xfId="2"/>
+    <cellStyle name="我的公式" xfId="1"/>
+    <cellStyle name="我的外边框" xfId="6"/>
+    <cellStyle name="我的选择" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1351,7 +764,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1595,19 +1008,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="29.875" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -1708,7 +1121,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="25" t="s">
         <v>18</v>
       </c>
@@ -1722,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="25" t="s">
         <v>20</v>
       </c>
@@ -1736,7 +1149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="25" t="s">
         <v>22</v>
       </c>
@@ -1750,7 +1163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="31" t="s">
         <v>24</v>
       </c>
@@ -1764,7 +1177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="31" t="s">
         <v>27</v>
       </c>
@@ -1778,7 +1191,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="31" t="s">
         <v>30</v>
       </c>
@@ -1792,7 +1205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="31" t="s">
         <v>32</v>
       </c>
@@ -1806,7 +1219,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="31" t="s">
         <v>34</v>
       </c>
@@ -1820,7 +1233,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="31" t="s">
         <v>36</v>
       </c>
@@ -1873,96 +1286,95 @@
         <v>44</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D23">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="15.75">
       <c r="A24" s="35" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="14.875" customWidth="1"/>
     <col min="4" max="4" width="8.875" customWidth="1"/>
@@ -1975,27 +1387,27 @@
     <col min="11" max="11" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
@@ -2005,7 +1417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2016,7 +1428,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:15">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2028,46 +1440,46 @@
         <v>9</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="G5" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="H5" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="I5" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="J5" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="K5" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="L5" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="M5" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="N5" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="O5" s="24" t="s">
         <v>72</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2119,58 +1531,58 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="G7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="H7" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="I7" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="J7" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="K7" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="L7" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="M7" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="O7" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:15" ht="15.75">
       <c r="A8" s="17"/>
       <c r="B8" s="17">
         <v>1</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D8" s="20">
         <v>1</v>
@@ -2183,7 +1595,7 @@
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I8" s="20">
         <v>10</v>
@@ -2204,15 +1616,15 @@
         <v>70001</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75">
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D9" s="20">
         <v>2</v>
@@ -2225,7 +1637,7 @@
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I9" s="20">
         <v>10</v>
@@ -2246,15 +1658,15 @@
         <v>70002</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75">
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D10" s="20">
         <v>3</v>
@@ -2267,7 +1679,7 @@
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I10" s="20">
         <v>10</v>
@@ -2288,15 +1700,15 @@
         <v>70003</v>
       </c>
       <c r="O10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75">
       <c r="B11" s="17">
         <v>4</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D11" s="20">
         <v>4</v>
@@ -2308,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I11" s="20">
         <v>10</v>
@@ -2328,12 +1740,12 @@
         <v>70004</v>
       </c>
       <c r="O11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>